--- a/biology/Botanique/Nkamouna/Nkamouna.xlsx
+++ b/biology/Botanique/Nkamouna/Nkamouna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nkamouna, également appelée Nkamounaé, est une forêt camerounaise située à 400 km à l'Est de Yaoundé.
 </t>
@@ -511,9 +523,11 @@
           <t>Ethnographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des pygmées de l'ethnie Baka vivent dans cette forêt[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des pygmées de l'ethnie Baka vivent dans cette forêt.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région est riche en gisements de cobalt, de nickel et de manganèse. Ceux-ci intéressaient la société minière américano-canadienne Geovic Mining Corp[2]. Sa filiale Geovic Cameroun, obtient le tout premier permis d’exploitation minière du Cameroun en 2003, mais abandonne finalement le projet en 2014[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région est riche en gisements de cobalt, de nickel et de manganèse. Ceux-ci intéressaient la société minière américano-canadienne Geovic Mining Corp. Sa filiale Geovic Cameroun, obtient le tout premier permis d’exploitation minière du Cameroun en 2003, mais abandonne finalement le projet en 2014.
 </t>
         </is>
       </c>
